--- a/Mifos Automation Excels/Client/4710-SUBMITWITH(DUEDATE-15JAN2015)01JAN2015-DEP200-15JAN2015-WDRAW100-01FEB2015-POSTINTEREST01APR2015.xlsx
+++ b/Mifos Automation Excels/Client/4710-SUBMITWITH(DUEDATE-15JAN2015)01JAN2015-DEP200-15JAN2015-WDRAW100-01FEB2015-POSTINTEREST01APR2015.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="NewSavingInput" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="Saving Transaction" sheetId="5" r:id="rId5"/>
     <sheet name="Saving Charges" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -128,9 +128,6 @@
     <t>Transaction Date</t>
   </si>
   <si>
-    <t>Transaction Type</t>
-  </si>
-  <si>
     <t>Debit</t>
   </si>
   <si>
@@ -189,12 +186,15 @@
   </si>
   <si>
     <t>$0</t>
+  </si>
+  <si>
+    <t>TransactionType</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -371,7 +371,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -423,7 +423,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -617,7 +617,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -886,8 +886,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -903,54 +903,54 @@
         <v>33</v>
       </c>
       <c r="C1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="E1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="F1" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="9" t="s">
+      <c r="G1" s="9" t="s">
         <v>37</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="6">
-        <v>84</v>
+        <v>122</v>
       </c>
       <c r="B2" s="7">
         <v>42095</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="6">
-        <v>100</v>
-      </c>
-      <c r="E2" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6">
+        <v>6.27</v>
+      </c>
       <c r="F2" s="6">
-        <v>511.75</v>
+        <v>618.02</v>
       </c>
       <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="6">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="B3" s="7">
         <v>42095</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6">
-        <v>6.27</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="D3" s="6">
+        <v>100</v>
+      </c>
+      <c r="E3" s="6"/>
       <c r="F3" s="6">
         <v>518.02</v>
       </c>
@@ -958,7 +958,7 @@
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="6">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="B4" s="7">
         <v>42064</v>
@@ -977,7 +977,7 @@
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="B5" s="7">
         <v>42036</v>
@@ -994,28 +994,28 @@
       </c>
       <c r="G5" s="8"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
-        <v>78</v>
+        <v>117</v>
       </c>
       <c r="B6" s="7">
         <v>42005</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6">
-        <v>500</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="D6" s="6">
+        <v>100</v>
+      </c>
+      <c r="E6" s="6"/>
       <c r="F6" s="6">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
-        <v>79</v>
+        <v>116</v>
       </c>
       <c r="B7" s="7">
         <v>42005</v>
@@ -1032,22 +1032,22 @@
       </c>
       <c r="G7" s="8"/>
     </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="6">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="B8" s="7">
         <v>42005</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="6">
-        <v>100</v>
-      </c>
-      <c r="E8" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6">
+        <v>500</v>
+      </c>
       <c r="F8" s="6">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="G8" s="8"/>
     </row>
@@ -1060,7 +1060,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -1068,42 +1068,42 @@
   <sheetData>
     <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F1" s="9"/>
       <c r="G1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="I1" s="9" t="s">
         <v>43</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>44</v>
       </c>
       <c r="J1" s="9"/>
       <c r="K1" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="9" t="s">
+      <c r="M1" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="M1" s="9" t="s">
+      <c r="N1" s="9" t="s">
         <v>47</v>
-      </c>
-      <c r="N1" s="9" t="s">
-        <v>48</v>
       </c>
       <c r="O1" s="9"/>
       <c r="P1" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q1" s="9"/>
     </row>
@@ -1113,11 +1113,11 @@
       </c>
       <c r="B2" s="6"/>
       <c r="C2" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F2" s="6"/>
       <c r="G2" s="7">
@@ -1125,20 +1125,20 @@
       </c>
       <c r="H2" s="6"/>
       <c r="I2" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J2" s="6"/>
       <c r="K2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="O2" s="6"/>
       <c r="P2" s="6"/>
